--- a/data/dopKod.xlsx
+++ b/data/dopKod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSE\teorAvt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28D0F8-4DDC-4542-A8BF-F0B63B294F07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C8720-0526-4327-BC42-05DBBA8FFEFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A685283D-AE51-4AB2-85D0-8C1676D615A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="7">
   <si>
     <t>a0</t>
   </si>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D3BAB1-6D99-44AE-859C-3D2267351D57}">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,18 +515,18 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
     <col min="16" max="16" width="3.140625" customWidth="1"/>
     <col min="17" max="17" width="2.5703125" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.5703125" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" customWidth="1"/>
-    <col min="25" max="25" width="2.85546875" customWidth="1"/>
-    <col min="26" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" customWidth="1"/>
-    <col min="28" max="29" width="2.85546875" customWidth="1"/>
-    <col min="30" max="32" width="3" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" customWidth="1"/>
+    <col min="25" max="25" width="3" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" customWidth="1"/>
+    <col min="27" max="28" width="2.85546875" customWidth="1"/>
+    <col min="29" max="31" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +542,20 @@
       <c r="Q1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>4</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>2</v>
+      </c>
+      <c r="U1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -589,6 +601,9 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
       <c r="S2">
         <v>0</v>
       </c>
@@ -598,19 +613,24 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="AB2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -656,6 +676,9 @@
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0</v>
       </c>
@@ -663,35 +686,32 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>5</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -737,39 +757,39 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -815,40 +835,40 @@
       <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
       <c r="Z5" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>5</v>
       </c>
       <c r="AD5" t="s">
         <v>5</v>
       </c>
-      <c r="AE5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -894,37 +914,37 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
       <c r="Z6" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6">
         <v>1</v>
       </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -970,6 +990,9 @@
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
       <c r="S7" t="s">
         <v>5</v>
       </c>
@@ -982,9 +1005,7 @@
       <c r="V7" t="s">
         <v>5</v>
       </c>
-      <c r="W7" t="s">
-        <v>5</v>
-      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -992,9 +1013,8 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1040,6 +1060,9 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
       <c r="S8" t="s">
         <v>5</v>
       </c>
@@ -1052,11 +1075,8 @@
       <c r="V8" t="s">
         <v>5</v>
       </c>
-      <c r="W8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1102,6 +1122,9 @@
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
       <c r="S9" t="s">
         <v>5</v>
       </c>
@@ -1115,33 +1138,30 @@
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" t="s">
         <v>2</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1"/>
+      <c r="X9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AB9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1187,6 +1207,9 @@
       <c r="Q10">
         <v>0</v>
       </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
       <c r="S10" t="s">
         <v>5</v>
       </c>
@@ -1200,29 +1223,26 @@
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" t="s">
         <v>6</v>
       </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X10" s="3"/>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1268,6 +1288,9 @@
       <c r="Q11">
         <v>1</v>
       </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
       <c r="S11" t="s">
         <v>5</v>
       </c>
@@ -1280,30 +1303,27 @@
       <c r="V11" t="s">
         <v>5</v>
       </c>
-      <c r="W11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="Z11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>5</v>
       </c>
       <c r="AD11" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>10</v>
       </c>
@@ -1322,6 +1342,9 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
       <c r="S12" t="s">
         <v>5</v>
       </c>
@@ -1334,29 +1357,26 @@
       <c r="V12" t="s">
         <v>5</v>
       </c>
-      <c r="W12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="Z12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -1375,20 +1395,20 @@
       <c r="Q13">
         <v>1</v>
       </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -1407,20 +1427,20 @@
       <c r="Q14">
         <v>0</v>
       </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L15">
         <v>13</v>
       </c>
@@ -1439,43 +1459,43 @@
       <c r="Q15">
         <v>1</v>
       </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
         <v>3</v>
       </c>
-      <c r="Y15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1">
-        <v>1</v>
+      <c r="X15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L16">
         <v>14</v>
       </c>
@@ -1494,6 +1514,9 @@
       <c r="Q16">
         <v>0</v>
       </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
       <c r="S16">
         <v>1</v>
       </c>
@@ -1501,31 +1524,28 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>6</v>
       </c>
-      <c r="Y16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>15</v>
       </c>
@@ -1544,6 +1564,9 @@
       <c r="Q17">
         <v>1</v>
       </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
       <c r="S17">
         <v>1</v>
       </c>
@@ -1553,30 +1576,27 @@
       <c r="U17">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1</v>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>5</v>
       </c>
       <c r="Z17" t="s">
         <v>5</v>
       </c>
-      <c r="AA17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>5</v>
       </c>
       <c r="AD17" t="s">
         <v>5</v>
       </c>
-      <c r="AE17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L18">
         <v>16</v>
       </c>
@@ -1595,6 +1615,9 @@
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
       <c r="S18">
         <v>1</v>
       </c>
@@ -1604,29 +1627,26 @@
       <c r="U18">
         <v>1</v>
       </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="Z18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AD18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L19">
         <v>17</v>
       </c>
@@ -1645,6 +1665,9 @@
       <c r="Q19">
         <v>1</v>
       </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
       <c r="S19">
         <v>1</v>
       </c>
@@ -1652,13 +1675,10 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="12:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>18</v>
       </c>
@@ -1677,20 +1697,20 @@
       <c r="Q20">
         <v>0</v>
       </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="12:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>19</v>
       </c>
@@ -1709,43 +1729,43 @@
       <c r="Q21">
         <v>1</v>
       </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W21" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1"/>
+      <c r="X21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AB21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>20</v>
       </c>
@@ -1764,38 +1784,38 @@
       <c r="Q22">
         <v>0</v>
       </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="W22" t="s">
         <v>6</v>
       </c>
-      <c r="Y22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L23">
         <v>21</v>
       </c>
@@ -1814,6 +1834,9 @@
       <c r="Q23">
         <v>1</v>
       </c>
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
       <c r="S23" t="s">
         <v>5</v>
       </c>
@@ -1826,29 +1849,26 @@
       <c r="V23" t="s">
         <v>5</v>
       </c>
-      <c r="W23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1</v>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA23" s="5" t="s">
+      <c r="AC23" t="s">
         <v>5</v>
       </c>
       <c r="AD23" t="s">
         <v>5</v>
       </c>
-      <c r="AE23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>22</v>
       </c>
@@ -1867,6 +1887,9 @@
       <c r="Q24">
         <v>0</v>
       </c>
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
       <c r="S24" t="s">
         <v>5</v>
       </c>
@@ -1879,29 +1902,26 @@
       <c r="V24" t="s">
         <v>5</v>
       </c>
-      <c r="W24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>1</v>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AD24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>23</v>
       </c>
@@ -1920,6 +1940,9 @@
       <c r="Q25">
         <v>1</v>
       </c>
+      <c r="R25" t="s">
+        <v>5</v>
+      </c>
       <c r="S25" t="s">
         <v>5</v>
       </c>
@@ -1932,11 +1955,8 @@
       <c r="V25" t="s">
         <v>5</v>
       </c>
-      <c r="W25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>24</v>
       </c>
@@ -1955,6 +1975,9 @@
       <c r="Q26">
         <v>0</v>
       </c>
+      <c r="R26" t="s">
+        <v>5</v>
+      </c>
       <c r="S26" t="s">
         <v>5</v>
       </c>
@@ -1967,11 +1990,8 @@
       <c r="V26" t="s">
         <v>5</v>
       </c>
-      <c r="W26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>25</v>
       </c>
@@ -1990,6 +2010,9 @@
       <c r="Q27">
         <v>1</v>
       </c>
+      <c r="R27" t="s">
+        <v>5</v>
+      </c>
       <c r="S27" t="s">
         <v>5</v>
       </c>
@@ -2002,11 +2025,8 @@
       <c r="V27" t="s">
         <v>5</v>
       </c>
-      <c r="W27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>26</v>
       </c>
@@ -2025,6 +2045,9 @@
       <c r="Q28">
         <v>0</v>
       </c>
+      <c r="R28" t="s">
+        <v>5</v>
+      </c>
       <c r="S28" t="s">
         <v>5</v>
       </c>
@@ -2037,11 +2060,8 @@
       <c r="V28" t="s">
         <v>5</v>
       </c>
-      <c r="W28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>27</v>
       </c>
@@ -2060,20 +2080,20 @@
       <c r="Q29">
         <v>1</v>
       </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>28</v>
       </c>
@@ -2092,20 +2112,20 @@
       <c r="Q30">
         <v>0</v>
       </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="12:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>29</v>
       </c>
@@ -2124,20 +2144,20 @@
       <c r="Q31">
         <v>1</v>
       </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="12:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>30</v>
       </c>
@@ -2156,6 +2176,9 @@
       <c r="Q32">
         <v>0</v>
       </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
       <c r="S32">
         <v>0</v>
       </c>
@@ -2163,13 +2186,10 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>31</v>
       </c>
@@ -2188,6 +2208,9 @@
       <c r="Q33">
         <v>1</v>
       </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
       <c r="S33">
         <v>0</v>
       </c>
@@ -2195,9 +2218,6 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
         <v>0</v>
       </c>
     </row>

--- a/data/dopKod.xlsx
+++ b/data/dopKod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSE\teorAvt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C8720-0526-4327-BC42-05DBBA8FFEFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A50E84-DDF0-4484-828E-1E2045056169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A685283D-AE51-4AB2-85D0-8C1676D615A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
   <si>
     <t>a0</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>$Q^5_n$</t>
+  </si>
+  <si>
+    <t>$Q^5_{n+1}$</t>
+  </si>
+  <si>
+    <t>$F_5$</t>
+  </si>
+  <si>
+    <t>СИ4</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D3BAB1-6D99-44AE-859C-3D2267351D57}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:U33"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +538,7 @@
     <col min="29" max="31" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -629,8 +641,65 @@
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -711,7 +780,7 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -789,7 +858,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -868,7 +937,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -944,7 +1013,7 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1014,7 +1083,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1076,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1161,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1242,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1323,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>10</v>
       </c>
@@ -1376,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -1408,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -1440,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L15">
         <v>13</v>
       </c>
@@ -1495,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L16">
         <v>14</v>
       </c>

--- a/data/dopKod.xlsx
+++ b/data/dopKod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSE\teorAvt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A50E84-DDF0-4484-828E-1E2045056169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF97D6-767F-406C-8C6F-C43472145044}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A685283D-AE51-4AB2-85D0-8C1676D615A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="61">
   <si>
     <t>a0</t>
   </si>
@@ -64,13 +64,163 @@
   </si>
   <si>
     <t>СИ4</t>
+  </si>
+  <si>
+    <t>$Q^4_n$</t>
+  </si>
+  <si>
+    <t>$Q^3_n$</t>
+  </si>
+  <si>
+    <t>$Q^2_n$</t>
+  </si>
+  <si>
+    <t>$Q^1_n$</t>
+  </si>
+  <si>
+    <t>$Q^4_{n+1}$</t>
+  </si>
+  <si>
+    <t>$Q^3_{n+1}$</t>
+  </si>
+  <si>
+    <t>$Q^2_{n+1}$</t>
+  </si>
+  <si>
+    <t>$Q^1_{n+1}$</t>
+  </si>
+  <si>
+    <t>$F_4$</t>
+  </si>
+  <si>
+    <t>$F_2$</t>
+  </si>
+  <si>
+    <t>$F_1$</t>
+  </si>
+  <si>
+    <t>$F_3$</t>
+  </si>
+  <si>
+    <t>СИ3</t>
+  </si>
+  <si>
+    <t>СИ2</t>
+  </si>
+  <si>
+    <t>СИ1</t>
+  </si>
+  <si>
+    <t>$\bigtriangleup$</t>
+  </si>
+  <si>
+    <t>$\bigtriangledown$</t>
+  </si>
+  <si>
+    <t>$a_1$</t>
+  </si>
+  <si>
+    <t>$\bar{a}_1$</t>
+  </si>
+  <si>
+    <t>$a_0$</t>
+  </si>
+  <si>
+    <t>$\bar{a}_0$</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>$\bar{a}_2$</t>
+  </si>
+  <si>
+    <t>$a_3$</t>
+  </si>
+  <si>
+    <t>$\bar{a}_4$</t>
+  </si>
+  <si>
+    <t>$\bar{a}_3$</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>$Q_1$</t>
+  </si>
+  <si>
+    <t>$\bar{Q}_1$</t>
+  </si>
+  <si>
+    <t>$Q_5$</t>
+  </si>
+  <si>
+    <t>$\bar{Q}_5$</t>
+  </si>
+  <si>
+    <t>$Q_4$</t>
+  </si>
+  <si>
+    <t>$\bar{Q}_2$</t>
+  </si>
+  <si>
+    <t>$Q_3$</t>
+  </si>
+  <si>
+    <t>$\bar{Q}_4$</t>
+  </si>
+  <si>
+    <t>$\bar{Q}_3$</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>-D5</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>-D4</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>-D2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>-D3</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +228,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -192,6 +349,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D3BAB1-6D99-44AE-859C-3D2267351D57}">
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:DI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="DA16" sqref="DA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +696,10 @@
     <col min="26" max="26" width="2.7109375" customWidth="1"/>
     <col min="27" max="28" width="2.85546875" customWidth="1"/>
     <col min="29" max="31" width="3" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -645,61 +806,180 @@
         <v>7</v>
       </c>
       <c r="AH2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="s">
         <v>8</v>
       </c>
       <c r="AM2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="s">
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AS2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AU2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AV2" t="s">
         <v>10</v>
       </c>
       <c r="AW2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AX2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="9"/>
+      <c r="BW2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="9">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="9"/>
+      <c r="CQ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="9"/>
+      <c r="DA2" t="s">
+        <v>59</v>
+      </c>
+      <c r="DB2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -778,9 +1058,178 @@
       <c r="AE3" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU3" s="2"/>
+      <c r="BX3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="2"/>
+      <c r="CR3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -856,9 +1305,161 @@
       <c r="AE4" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="3"/>
+      <c r="AF4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU4" s="2"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB4" s="3"/>
+      <c r="CC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CE4" s="2"/>
+      <c r="CH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL4" s="3"/>
+      <c r="CM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="2"/>
+      <c r="CR4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>27</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -935,9 +1536,152 @@
       <c r="AE5">
         <v>1</v>
       </c>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="10"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="10"/>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="7"/>
+      <c r="CM5" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="10"/>
+      <c r="CR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>26</v>
+      </c>
+      <c r="CV5" s="7"/>
+      <c r="CX5" s="8"/>
+      <c r="CY5" s="10"/>
+      <c r="DB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>26</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1011,9 +1755,80 @@
       <c r="AE6">
         <v>1</v>
       </c>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1082,8 +1897,213 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
+      <c r="AF7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="9"/>
+      <c r="BW7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="9"/>
+      <c r="CQ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CR7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="9"/>
+      <c r="DA7" t="s">
+        <v>60</v>
+      </c>
+      <c r="DB7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1144,8 +2164,178 @@
       <c r="V8" t="s">
         <v>5</v>
       </c>
+      <c r="AF8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU8" s="2"/>
+      <c r="BX8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD8">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CK8">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN8" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="2"/>
+      <c r="CR8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX8" s="5">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DF8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH8" s="5">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1229,8 +2419,142 @@
       <c r="AE9" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="AF9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU9" s="2"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CB9" s="3"/>
+      <c r="CC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CE9" s="2"/>
+      <c r="CH9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="3"/>
+      <c r="CM9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="2"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB9" s="3"/>
+      <c r="DC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DF9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH9">
+        <v>1</v>
+      </c>
+      <c r="DI9" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1310,8 +2634,141 @@
       <c r="AE10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="AF10" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="12"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="10"/>
+      <c r="BX10" s="7"/>
+      <c r="BY10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CB10" s="7"/>
+      <c r="CC10" s="12"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="10"/>
+      <c r="CH10" s="7"/>
+      <c r="CI10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="8"/>
+      <c r="CL10" s="7"/>
+      <c r="CM10" s="12"/>
+      <c r="CN10" s="8">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="10"/>
+      <c r="CR10" s="7">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT10" s="8">
+        <v>1</v>
+      </c>
+      <c r="CU10" s="8">
+        <v>1</v>
+      </c>
+      <c r="CV10" s="7"/>
+      <c r="CW10" s="12"/>
+      <c r="CX10" s="8"/>
+      <c r="CY10" s="10"/>
+      <c r="DB10" s="7"/>
+      <c r="DC10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD10" s="8"/>
+      <c r="DE10" s="8"/>
+      <c r="DF10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DG10" s="12"/>
+      <c r="DH10" s="8">
+        <v>1</v>
+      </c>
+      <c r="DI10" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1391,8 +2848,86 @@
       <c r="AE11" s="2">
         <v>1</v>
       </c>
+      <c r="AF11" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>10</v>
       </c>
@@ -1444,8 +2979,210 @@
       <c r="AE12" s="10">
         <v>1</v>
       </c>
+      <c r="AF12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="9"/>
+      <c r="CG12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="9">
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY12" s="9">
+        <v>1</v>
+      </c>
+      <c r="DA12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="9"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -1476,8 +3213,176 @@
       <c r="U13">
         <v>1</v>
       </c>
+      <c r="AF13" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ13">
+        <v>1</v>
+      </c>
+      <c r="CB13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>38</v>
+      </c>
+      <c r="CE13" s="2"/>
+      <c r="CH13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ13">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT13">
+        <v>1</v>
+      </c>
+      <c r="CU13">
+        <v>1</v>
+      </c>
+      <c r="CV13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY13" s="2"/>
+      <c r="DB13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD13">
+        <v>1</v>
+      </c>
+      <c r="DE13">
+        <v>1</v>
+      </c>
+      <c r="DF13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>38</v>
+      </c>
+      <c r="DI13" s="2"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -1508,8 +3413,159 @@
       <c r="U14">
         <v>0</v>
       </c>
+      <c r="AF14" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="3"/>
+      <c r="BO14" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="3"/>
+      <c r="BS14" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA14">
+        <v>1</v>
+      </c>
+      <c r="CB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD14">
+        <v>1</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH14" s="3"/>
+      <c r="CI14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ14">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR14" s="3">
+        <v>1</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT14">
+        <v>1</v>
+      </c>
+      <c r="CU14">
+        <v>1</v>
+      </c>
+      <c r="CV14" s="3"/>
+      <c r="CW14" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY14" s="2"/>
+      <c r="DB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD14">
+        <v>1</v>
+      </c>
+      <c r="DE14">
+        <v>1</v>
+      </c>
+      <c r="DF14" s="3"/>
+      <c r="DG14" t="s">
+        <v>38</v>
+      </c>
+      <c r="DI14" s="2"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="L15">
         <v>13</v>
       </c>
@@ -1563,8 +3619,172 @@
       <c r="AE15" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="AF15" s="3">
+        <v>13</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="12">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX15" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ15" s="8">
+        <v>1</v>
+      </c>
+      <c r="CA15" s="8">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="7">
+        <v>1</v>
+      </c>
+      <c r="CC15" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="8">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="10">
+        <v>1</v>
+      </c>
+      <c r="CH15" s="7">
+        <v>1</v>
+      </c>
+      <c r="CI15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ15" s="8"/>
+      <c r="CK15" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="7">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="12">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="8"/>
+      <c r="CO15" s="10">
+        <v>1</v>
+      </c>
+      <c r="CR15" s="7"/>
+      <c r="CS15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT15" s="8"/>
+      <c r="CU15" s="8"/>
+      <c r="CV15" s="7">
+        <v>1</v>
+      </c>
+      <c r="CW15" s="12">
+        <v>1</v>
+      </c>
+      <c r="CX15" s="8">
+        <v>1</v>
+      </c>
+      <c r="CY15" s="10">
+        <v>1</v>
+      </c>
+      <c r="DB15" s="7">
+        <v>1</v>
+      </c>
+      <c r="DC15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD15" s="8">
+        <v>1</v>
+      </c>
+      <c r="DE15" s="8">
+        <v>1</v>
+      </c>
+      <c r="DF15" s="7"/>
+      <c r="DG15" s="12"/>
+      <c r="DH15" s="8"/>
+      <c r="DI15" s="10"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="L16">
         <v>14</v>
       </c>
@@ -1613,8 +3833,80 @@
       <c r="AE16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="AF16" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>15</v>
       </c>
@@ -1664,8 +3956,98 @@
         <v>5</v>
       </c>
       <c r="AE17" s="2"/>
+      <c r="AF17" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L18">
         <v>16</v>
       </c>
@@ -1714,8 +4096,89 @@
       <c r="AE18" s="10">
         <v>1</v>
       </c>
+      <c r="AF18" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L19">
         <v>17</v>
       </c>
@@ -1746,8 +4209,68 @@
       <c r="U19">
         <v>0</v>
       </c>
+      <c r="AF19" s="3">
+        <v>17</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>18</v>
       </c>
@@ -1778,8 +4301,71 @@
       <c r="U20">
         <v>1</v>
       </c>
+      <c r="AF20" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="21" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>19</v>
       </c>
@@ -1833,8 +4419,83 @@
       <c r="AE21" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="AF21" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>20</v>
       </c>
@@ -1883,8 +4544,95 @@
       <c r="AE22" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="AF22" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="23" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L23">
         <v>21</v>
       </c>
@@ -1936,8 +4684,83 @@
       <c r="AE23" s="2">
         <v>1</v>
       </c>
+      <c r="AF23" s="3">
+        <v>21</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>22</v>
       </c>
@@ -1990,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>23</v>
       </c>
@@ -2025,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>24</v>
       </c>
@@ -2060,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>25</v>
       </c>
@@ -2095,7 +4918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>26</v>
       </c>
@@ -2130,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>27</v>
       </c>
@@ -2162,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>28</v>
       </c>
@@ -2194,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>29</v>
       </c>
@@ -2226,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:63" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>30</v>
       </c>
@@ -2292,5 +5115,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/dopKod.xlsx
+++ b/data/dopKod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSE\teorAvt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF97D6-767F-406C-8C6F-C43472145044}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE1597D-0307-470A-A75B-5D090FF9B6E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A685283D-AE51-4AB2-85D0-8C1676D615A3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="62">
   <si>
     <t>a0</t>
   </si>
@@ -214,6 +215,9 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>-D1</t>
   </si>
 </sst>
 </file>
@@ -666,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D3BAB1-6D99-44AE-859C-3D2267351D57}">
-  <dimension ref="A1:DI33"/>
+  <dimension ref="A1:DS33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="DA16" sqref="DA16"/>
+      <selection activeCell="DD9" sqref="DD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +703,7 @@
     <col min="47" max="47" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -978,8 +982,35 @@
       <c r="DI2" t="s">
         <v>26</v>
       </c>
+      <c r="DK2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DL2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1228,8 +1259,32 @@
       <c r="DI3" t="s">
         <v>26</v>
       </c>
+      <c r="DL3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1458,8 +1513,32 @@
       <c r="DI4" t="s">
         <v>26</v>
       </c>
+      <c r="DL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1680,8 +1759,30 @@
       <c r="DI5" t="s">
         <v>26</v>
       </c>
+      <c r="DL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="12"/>
+      <c r="DR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1828,7 +1929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2102,8 +2203,35 @@
       <c r="DI7" s="9">
         <v>1</v>
       </c>
+      <c r="DK7" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2334,8 +2462,32 @@
       <c r="DI8" s="2">
         <v>1</v>
       </c>
+      <c r="DL8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN8" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR8" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2553,8 +2705,30 @@
       <c r="DI9" s="2">
         <v>1</v>
       </c>
+      <c r="DL9" s="3"/>
+      <c r="DM9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN9" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO9" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP9" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR9" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS9" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2767,8 +2941,32 @@
       <c r="DI10" s="10">
         <v>1</v>
       </c>
+      <c r="DL10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DM10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN10" s="8">
+        <v>1</v>
+      </c>
+      <c r="DO10" s="8">
+        <v>1</v>
+      </c>
+      <c r="DP10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="12">
+        <v>1</v>
+      </c>
+      <c r="DR10" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS10" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2927,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>10</v>
       </c>
@@ -3159,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="DA12" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="DB12" s="6" t="s">
         <v>38</v>
@@ -3181,8 +3379,35 @@
       </c>
       <c r="DH12" s="1"/>
       <c r="DI12" s="9"/>
+      <c r="DK12" t="s">
+        <v>24</v>
+      </c>
+      <c r="DL12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS12" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>11</v>
       </c>
@@ -3381,8 +3606,32 @@
         <v>38</v>
       </c>
       <c r="DI13" s="2"/>
+      <c r="DL13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS13" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>12</v>
       </c>
@@ -3564,8 +3813,30 @@
         <v>38</v>
       </c>
       <c r="DI14" s="2"/>
+      <c r="DL14" s="3">
+        <v>1</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN14" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO14">
+        <v>1</v>
+      </c>
+      <c r="DP14" s="3"/>
+      <c r="DQ14" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR14" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS14" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="L15">
         <v>13</v>
       </c>
@@ -3783,8 +4054,32 @@
       <c r="DG15" s="12"/>
       <c r="DH15" s="8"/>
       <c r="DI15" s="10"/>
+      <c r="DL15" s="7">
+        <v>1</v>
+      </c>
+      <c r="DM15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN15" s="8">
+        <v>1</v>
+      </c>
+      <c r="DO15" s="8">
+        <v>1</v>
+      </c>
+      <c r="DP15" s="7">
+        <v>1</v>
+      </c>
+      <c r="DQ15" s="12">
+        <v>1</v>
+      </c>
+      <c r="DR15" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS15" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="L16">
         <v>14</v>
       </c>
@@ -3906,7 +4201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>15</v>
       </c>
@@ -4046,8 +4341,35 @@
       <c r="BK17" t="s">
         <v>44</v>
       </c>
+      <c r="DK17" t="s">
+        <v>25</v>
+      </c>
+      <c r="DL17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS17" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L18">
         <v>16</v>
       </c>
@@ -4177,8 +4499,32 @@
       <c r="BK18" t="s">
         <v>45</v>
       </c>
+      <c r="DL18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN18" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO18" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR18" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS18" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L19">
         <v>17</v>
       </c>
@@ -4269,8 +4615,32 @@
       <c r="AY19">
         <v>0</v>
       </c>
+      <c r="DL19" s="3">
+        <v>1</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN19">
+        <v>1</v>
+      </c>
+      <c r="DO19" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>38</v>
+      </c>
+      <c r="DR19">
+        <v>1</v>
+      </c>
+      <c r="DS19" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>18</v>
       </c>
@@ -4364,8 +4734,30 @@
       <c r="BB20" t="s">
         <v>46</v>
       </c>
+      <c r="DL20" s="7">
+        <v>1</v>
+      </c>
+      <c r="DM20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN20" s="8">
+        <v>1</v>
+      </c>
+      <c r="DO20" s="8">
+        <v>1</v>
+      </c>
+      <c r="DP20" s="7">
+        <v>1</v>
+      </c>
+      <c r="DQ20" s="12">
+        <v>1</v>
+      </c>
+      <c r="DR20" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS20" s="10"/>
     </row>
-    <row r="21" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>19</v>
       </c>
@@ -4495,7 +4887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>20</v>
       </c>
@@ -4632,7 +5024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L23">
         <v>21</v>
       </c>
@@ -4760,7 +5152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>22</v>
       </c>
@@ -4813,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>23</v>
       </c>
@@ -4848,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>24</v>
       </c>
@@ -4883,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>25</v>
       </c>
@@ -4918,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>26</v>
       </c>
@@ -4953,7 +5345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>27</v>
       </c>
@@ -4985,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>28</v>
       </c>
@@ -5017,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>29</v>
       </c>
@@ -5049,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="12:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>30</v>
       </c>
